--- a/relatoriosTrimestrais.xlsx
+++ b/relatoriosTrimestrais.xlsx
@@ -1,24 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PAULO\Documents\Banco de dados\2 semestre\Projeto aplicado I\Etapa 1\arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F622E0AE-1F01-46A1-B540-15B25F8219AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7D63CB-9B93-4E02-9E0F-40E9CABF5B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="795" xr2:uid="{9C03FB36-0240-4C33-A1BB-C4F85DC54635}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="795" activeTab="1" xr2:uid="{9C03FB36-0240-4C33-A1BB-C4F85DC54635}"/>
   </bookViews>
   <sheets>
     <sheet name="Preço contrato" sheetId="1" r:id="rId1"/>
     <sheet name="Preço mediano m2" sheetId="2" r:id="rId2"/>
     <sheet name="Rentabilidade por quartos" sheetId="3" r:id="rId3"/>
     <sheet name="Rentabilidade por zona" sheetId="4" r:id="rId4"/>
-    <sheet name="Bairros mais procurados" sheetId="5" r:id="rId5"/>
-    <sheet name="Filtros mais usados" sheetId="6" r:id="rId6"/>
+    <sheet name="Filtros mais usados" sheetId="6" r:id="rId5"/>
+    <sheet name="Bairros mais procurados" sheetId="5" r:id="rId6"/>
+    <sheet name="Bairros mais caros" sheetId="8" r:id="rId7"/>
+    <sheet name="Bairros mais valorizados" sheetId="9" r:id="rId8"/>
+    <sheet name="Bairros mais desvalorizados" sheetId="10" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Rentabilidade por quartos'!$A$1:$D$14</definedName>
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="152">
   <si>
     <t>Trimestre/Ano</t>
   </si>
@@ -275,6 +278,231 @@
   </si>
   <si>
     <t>6,9,2</t>
+  </si>
+  <si>
+    <t>Vila Nova Conceição</t>
+  </si>
+  <si>
+    <t>Sumaré</t>
+  </si>
+  <si>
+    <t>Jardim Paulista</t>
+  </si>
+  <si>
+    <t>Itaim Bibi</t>
+  </si>
+  <si>
+    <t>Vila Madalena</t>
+  </si>
+  <si>
+    <t>Vila Olímpia</t>
+  </si>
+  <si>
+    <t>Vila Pompéia</t>
+  </si>
+  <si>
+    <t>Brooklin</t>
+  </si>
+  <si>
+    <t>Chácara Santo Antonio</t>
+  </si>
+  <si>
+    <t>Campo Belo</t>
+  </si>
+  <si>
+    <t>Vila Leopoldina</t>
+  </si>
+  <si>
+    <t>Lapa</t>
+  </si>
+  <si>
+    <t>Vila Clementino</t>
+  </si>
+  <si>
+    <t>bairro</t>
+  </si>
+  <si>
+    <t>valor m/2</t>
+  </si>
+  <si>
+    <t>trimestre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ano </t>
+  </si>
+  <si>
+    <t>Perdizes</t>
+  </si>
+  <si>
+    <t>Consolação</t>
+  </si>
+  <si>
+    <t>Santa Cecília</t>
+  </si>
+  <si>
+    <t>Saúde</t>
+  </si>
+  <si>
+    <t>Bosque da Saúde</t>
+  </si>
+  <si>
+    <t>Bela Vista</t>
+  </si>
+  <si>
+    <t>Vila Mascote</t>
+  </si>
+  <si>
+    <t>Vila Andrade</t>
+  </si>
+  <si>
+    <t>Vila Prudente</t>
+  </si>
+  <si>
+    <t>Jabaquara</t>
+  </si>
+  <si>
+    <t>Santana</t>
+  </si>
+  <si>
+    <t>Liberdade</t>
+  </si>
+  <si>
+    <t>Panamby</t>
+  </si>
+  <si>
+    <t>Portal do Morumbi</t>
+  </si>
+  <si>
+    <t>Santo Amaro</t>
+  </si>
+  <si>
+    <t>Vila Romana</t>
+  </si>
+  <si>
+    <t>Cambuci</t>
+  </si>
+  <si>
+    <t>Paraíso</t>
+  </si>
+  <si>
+    <t>Brás</t>
+  </si>
+  <si>
+    <t>Vila das Mercês</t>
+  </si>
+  <si>
+    <t>Bairro</t>
+  </si>
+  <si>
+    <t>Variação</t>
+  </si>
+  <si>
+    <t>ano</t>
+  </si>
+  <si>
+    <t>5.51%</t>
+  </si>
+  <si>
+    <t>4.22%</t>
+  </si>
+  <si>
+    <t>Vila Guilherme</t>
+  </si>
+  <si>
+    <t>3.92%</t>
+  </si>
+  <si>
+    <t>Jardim Iris</t>
+  </si>
+  <si>
+    <t>3.24%</t>
+  </si>
+  <si>
+    <t>3.02%</t>
+  </si>
+  <si>
+    <t>Jardim Maracana</t>
+  </si>
+  <si>
+    <t>Vila Kosseude</t>
+  </si>
+  <si>
+    <t>Vila Conceição</t>
+  </si>
+  <si>
+    <t>Ipatinga</t>
+  </si>
+  <si>
+    <t>Morumbi</t>
+  </si>
+  <si>
+    <t>Chácara Inglesa</t>
+  </si>
+  <si>
+    <t>Sapopemba</t>
+  </si>
+  <si>
+    <t>Chácara Santo Antônio</t>
+  </si>
+  <si>
+    <t>Casa Verde</t>
+  </si>
+  <si>
+    <t>Jardim Santa Emília</t>
+  </si>
+  <si>
+    <t>Vila Esperança</t>
+  </si>
+  <si>
+    <t>Água Fria</t>
+  </si>
+  <si>
+    <t>Penha de França</t>
+  </si>
+  <si>
+    <t>Alto da Lapa</t>
+  </si>
+  <si>
+    <t>–1.79%</t>
+  </si>
+  <si>
+    <t>–1.82%</t>
+  </si>
+  <si>
+    <t>–1.88%</t>
+  </si>
+  <si>
+    <t>–2.89%</t>
+  </si>
+  <si>
+    <t>–3.71%</t>
+  </si>
+  <si>
+    <t>Setor Amarro</t>
+  </si>
+  <si>
+    <t>Jaguaria</t>
+  </si>
+  <si>
+    <t>Vila Olimpia</t>
+  </si>
+  <si>
+    <t>Vila Nazari</t>
+  </si>
+  <si>
+    <t>Secomã</t>
+  </si>
+  <si>
+    <t>Vila Santa Clara</t>
+  </si>
+  <si>
+    <t>Jardim Íris</t>
+  </si>
+  <si>
+    <t>Trimestre</t>
+  </si>
+  <si>
+    <t>Ano</t>
   </si>
 </sst>
 </file>
@@ -282,9 +510,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,6 +566,26 @@
       <name val="Aptos"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1B1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1B1C1D"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1B1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -347,7 +595,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -355,11 +603,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -373,10 +636,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -392,24 +651,53 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -747,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2530B8C9-03D5-4549-8B70-E6B3EA9ACEC4}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -777,7 +1065,7 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="1">
         <v>6646</v>
       </c>
       <c r="C2" s="1">
@@ -791,7 +1079,7 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="1">
         <v>6731</v>
       </c>
       <c r="C3" s="1">
@@ -805,7 +1093,7 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="1">
         <v>6444</v>
       </c>
       <c r="C4" s="1">
@@ -819,7 +1107,7 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="1">
         <v>6824</v>
       </c>
       <c r="C5" s="1">
@@ -833,7 +1121,7 @@
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="1">
         <v>6896</v>
       </c>
       <c r="C6" s="1">
@@ -847,7 +1135,7 @@
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="1">
         <v>7153</v>
       </c>
       <c r="C7" s="1">
@@ -861,7 +1149,7 @@
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="1">
         <v>6867</v>
       </c>
       <c r="C8" s="1">
@@ -875,7 +1163,7 @@
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="1">
         <v>7015</v>
       </c>
       <c r="C9" s="1">
@@ -889,7 +1177,7 @@
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="3">
         <v>7157</v>
       </c>
       <c r="C10" s="1">
@@ -903,7 +1191,7 @@
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="1">
         <v>7209</v>
       </c>
       <c r="C11" s="1">
@@ -917,7 +1205,7 @@
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="1">
         <v>7216</v>
       </c>
       <c r="C12" s="1">
@@ -931,7 +1219,7 @@
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="1">
         <v>7315</v>
       </c>
       <c r="C13" s="1">
@@ -945,7 +1233,7 @@
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="1">
         <v>7333</v>
       </c>
       <c r="C14" s="1">
@@ -959,7 +1247,7 @@
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="3">
         <v>7500</v>
       </c>
       <c r="C15" s="1">
@@ -978,8 +1266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E278E758-A6AF-4E2B-9194-5ECF02EE216D}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1011,7 +1299,7 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="1">
         <v>7000</v>
       </c>
       <c r="C2" s="1">
@@ -1028,7 +1316,7 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="1">
         <v>7000</v>
       </c>
       <c r="C3" s="1">
@@ -1045,7 +1333,7 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="1">
         <v>6716</v>
       </c>
       <c r="C4" s="1">
@@ -1062,7 +1350,7 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="1">
         <v>7087</v>
       </c>
       <c r="C5" s="1">
@@ -1079,7 +1367,7 @@
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="1">
         <v>7164</v>
       </c>
       <c r="C6" s="1">
@@ -1096,7 +1384,7 @@
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="1">
         <v>7443</v>
       </c>
       <c r="C7" s="1">
@@ -1113,7 +1401,7 @@
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="1">
         <v>7182</v>
       </c>
       <c r="C8" s="1">
@@ -1130,7 +1418,7 @@
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="1">
         <v>7537</v>
       </c>
       <c r="C9" s="1">
@@ -1147,7 +1435,7 @@
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="1">
         <v>7647</v>
       </c>
       <c r="C10" s="1">
@@ -1164,7 +1452,7 @@
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="1">
         <v>7692</v>
       </c>
       <c r="C11" s="1">
@@ -1181,7 +1469,7 @@
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="1">
         <v>7600</v>
       </c>
       <c r="C12" s="1">
@@ -1198,7 +1486,7 @@
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="1">
         <v>7746</v>
       </c>
       <c r="C13" s="1">
@@ -1215,7 +1503,7 @@
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="1">
         <v>7738</v>
       </c>
       <c r="C14" s="1">
@@ -1232,7 +1520,7 @@
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="3">
         <v>7917</v>
       </c>
       <c r="C15" s="1">
@@ -1255,13 +1543,12 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.54296875" customWidth="1"/>
-    <col min="2" max="4" width="8.7265625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -1285,16 +1572,16 @@
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="11">
         <v>4.8099999999999996</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="10">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="10">
         <v>5</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="10">
         <v>4.2</v>
       </c>
     </row>
@@ -1302,16 +1589,16 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="11">
         <v>4.96</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="10">
         <v>5.3</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="10">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="10">
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -1319,16 +1606,16 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="11">
         <v>5.27</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="10">
         <v>5.8</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="10">
         <v>5.5</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="10">
         <v>4.7</v>
       </c>
     </row>
@@ -1336,16 +1623,16 @@
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="11">
         <v>5.12</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="10">
         <v>5.6</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="10">
         <v>5.2</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="10">
         <v>4.5</v>
       </c>
     </row>
@@ -1353,16 +1640,16 @@
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="11">
         <v>5.5</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="10">
         <v>6.2</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="10">
         <v>5.5</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="10">
         <v>4.9000000000000004</v>
       </c>
     </row>
@@ -1370,16 +1657,16 @@
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="11">
         <v>5.87</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="10">
         <v>6.5</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="10">
         <v>5.9</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="10">
         <v>5.3</v>
       </c>
     </row>
@@ -1387,16 +1674,16 @@
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="11">
         <v>5.9</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="10">
         <v>6.4</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="10">
         <v>6</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="10">
         <v>5.3</v>
       </c>
     </row>
@@ -1404,16 +1691,16 @@
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="11">
         <v>6.7</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="10">
         <v>6</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="10">
         <v>5.4</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="10">
         <v>6</v>
       </c>
     </row>
@@ -1421,16 +1708,16 @@
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="11">
         <v>6.8</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="10">
         <v>6.2</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="10">
         <v>5.6</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1438,16 +1725,16 @@
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="11">
         <v>6.9</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="10">
         <v>6.4</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="10">
         <v>5.7</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1455,16 +1742,16 @@
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="11">
         <v>7</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="10">
         <v>6.5</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="10">
         <v>5.8</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="10">
         <v>6.5</v>
       </c>
     </row>
@@ -1472,16 +1759,16 @@
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="11">
         <v>7.1</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="10">
         <v>6.5</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="10">
         <v>5.7</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="10">
         <v>6.5</v>
       </c>
     </row>
@@ -1489,16 +1776,16 @@
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="11">
         <v>7</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="10">
         <v>6.5</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="10">
         <v>5.8</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="10">
         <v>6.5</v>
       </c>
     </row>
@@ -1518,416 +1805,415 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.90625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" style="18" customWidth="1"/>
-    <col min="5" max="9" width="8.7265625" style="18"/>
-    <col min="10" max="16384" width="8.7265625" style="9"/>
+    <col min="1" max="1" width="13.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.90625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="17">
+      <c r="A2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="8">
         <v>4.3</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="8">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="8">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="8">
         <v>5.2</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="8">
         <v>5.6</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="8">
         <v>4.9000000000000004</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="8">
         <v>5</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I2" s="7">
         <v>4.8</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="8">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="8">
         <v>4.5</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="8">
         <v>4.5</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="8">
         <v>4.8</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="8">
         <v>5.3</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="7">
         <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="8">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="8">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="8">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="8">
         <v>5.3</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="8">
         <v>5.6</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="7">
         <v>5.2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="8">
         <v>4.8</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="8">
         <v>4.7</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="8">
         <v>4.7</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="8">
         <v>5.2</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="8">
         <v>5.3</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="7">
         <v>5.2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="8">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="8">
         <v>5.2</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="8">
         <v>5.2</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="8">
         <v>5.3</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="8">
         <v>5.7</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="7">
         <v>5.6</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="8">
         <v>5.7</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="8">
         <v>5.6</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="8">
         <v>5.6</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="8">
         <v>5.7</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="8">
         <v>6.1</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="7">
         <v>5.8</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="8">
         <v>5.6</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="8">
         <v>5.6</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="8">
         <v>5.6</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="8">
         <v>5.7</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="8">
         <v>6.3</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="7">
         <v>5.9</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="8">
         <v>5.8</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="8">
         <v>5.7</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="8">
         <v>5.7</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="8">
         <v>5.9</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="8">
         <v>6.3</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="7">
         <v>5.9</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="8">
         <v>5.9</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="8">
         <v>5.7</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="8">
         <v>5.7</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="8">
         <v>6.1</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="8">
         <v>6.6</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="7">
         <v>6.3</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="8">
         <v>6.1</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="8">
         <v>5.8</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="8">
         <v>5.8</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="8">
         <v>6.2</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="8">
         <v>6.9</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="7">
         <v>6.4</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="8">
         <v>6.3</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="8">
         <v>6</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="8">
         <v>6</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="8">
         <v>6.2</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="8">
         <v>6.9</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="7">
         <v>6.5</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="8">
         <v>6.3</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="8">
         <v>6</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="8">
         <v>6</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="8">
         <v>7.2</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="8">
         <v>7.7</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="8">
         <v>6.2</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="8">
         <v>7</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="7">
         <v>6.6</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="8">
         <v>6.2</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="8">
         <v>6.1</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="8">
         <v>6.1</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="8">
         <v>6.2</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="8">
         <v>6.9</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="7">
         <v>6.5</v>
       </c>
     </row>
@@ -1937,360 +2223,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF5D7BC5-1E73-4272-B6E1-59D999C2A34E}">
-  <dimension ref="A1:F19"/>
-  <sheetViews>
-    <sheetView zoomScale="91" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="14.6328125" customWidth="1"/>
-    <col min="2" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.08984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360E8BE8-EC17-4DF8-A27F-E8A58DE5FE41}">
   <dimension ref="A1:F15"/>
   <sheetViews>
@@ -2308,303 +2240,4556 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="5" t="s">
         <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF5D7BC5-1E73-4272-B6E1-59D999C2A34E}">
+  <dimension ref="A1:F51"/>
+  <sheetViews>
+    <sheetView zoomScale="91" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.6328125" customWidth="1"/>
+    <col min="2" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="25">
+        <v>1</v>
+      </c>
+      <c r="C2" s="25">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="25">
+        <v>1</v>
+      </c>
+      <c r="C3" s="25">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="25">
+        <v>1</v>
+      </c>
+      <c r="C4" s="25">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="25">
+        <v>1</v>
+      </c>
+      <c r="C5" s="25">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="25">
+        <v>1</v>
+      </c>
+      <c r="C6" s="25">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="25">
+        <v>2</v>
+      </c>
+      <c r="C7" s="25">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="25">
+        <v>2</v>
+      </c>
+      <c r="C8" s="25">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="25">
+        <v>2</v>
+      </c>
+      <c r="C9" s="25">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="25">
+        <v>2</v>
+      </c>
+      <c r="C10" s="25">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="25">
+        <v>2</v>
+      </c>
+      <c r="C11" s="25">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="25">
+        <v>3</v>
+      </c>
+      <c r="C12" s="25">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="25">
+        <v>3</v>
+      </c>
+      <c r="C13" s="25">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="25">
+        <v>3</v>
+      </c>
+      <c r="C14" s="25">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="25">
+        <v>3</v>
+      </c>
+      <c r="C15" s="25">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="25">
+        <v>3</v>
+      </c>
+      <c r="C16" s="25">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="25">
+        <v>4</v>
+      </c>
+      <c r="C17" s="25">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="25">
+        <v>4</v>
+      </c>
+      <c r="C18" s="25">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="25">
+        <v>4</v>
+      </c>
+      <c r="C19" s="25">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="25">
+        <v>4</v>
+      </c>
+      <c r="C20" s="25">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="25">
+        <v>4</v>
+      </c>
+      <c r="C21" s="25">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="25">
+        <v>1</v>
+      </c>
+      <c r="C22" s="25">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="25">
+        <v>1</v>
+      </c>
+      <c r="C23" s="25">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="25">
+        <v>1</v>
+      </c>
+      <c r="C24" s="25">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="25">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="25">
+        <v>1</v>
+      </c>
+      <c r="C26" s="25">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="25">
+        <v>2</v>
+      </c>
+      <c r="C27" s="25">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="25">
+        <v>2</v>
+      </c>
+      <c r="C28" s="25">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="25">
+        <v>2</v>
+      </c>
+      <c r="C29" s="25">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="25">
+        <v>2</v>
+      </c>
+      <c r="C30" s="25">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="25">
+        <v>2</v>
+      </c>
+      <c r="C31" s="25">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="25">
+        <v>3</v>
+      </c>
+      <c r="C32" s="25">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="25">
+        <v>3</v>
+      </c>
+      <c r="C33" s="25">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="25">
+        <v>3</v>
+      </c>
+      <c r="C34" s="25">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="25">
+        <v>3</v>
+      </c>
+      <c r="C35" s="25">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="25">
+        <v>3</v>
+      </c>
+      <c r="C36" s="25">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="25">
+        <v>4</v>
+      </c>
+      <c r="C37" s="25">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="25">
+        <v>4</v>
+      </c>
+      <c r="C38" s="25">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="25">
+        <v>4</v>
+      </c>
+      <c r="C39" s="25">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="25">
+        <v>4</v>
+      </c>
+      <c r="C40" s="25">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="25">
+        <v>4</v>
+      </c>
+      <c r="C41" s="25">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="25">
+        <v>1</v>
+      </c>
+      <c r="C42" s="25">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" s="25">
+        <v>1</v>
+      </c>
+      <c r="C43" s="25">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="25">
+        <v>1</v>
+      </c>
+      <c r="C44" s="25">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="25">
+        <v>1</v>
+      </c>
+      <c r="C45" s="25">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" s="25">
+        <v>1</v>
+      </c>
+      <c r="C46" s="25">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" s="25">
+        <v>2</v>
+      </c>
+      <c r="C47" s="25">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" s="25">
+        <v>2</v>
+      </c>
+      <c r="C48" s="25">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" s="25">
+        <v>2</v>
+      </c>
+      <c r="C49" s="25">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B50" s="25">
+        <v>2</v>
+      </c>
+      <c r="C50" s="25">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" s="25">
+        <v>2</v>
+      </c>
+      <c r="C51" s="25">
+        <v>2025</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C5E935-ED5B-4C37-A570-387A5C4EB153}">
+  <dimension ref="A1:D157"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D157"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="14">
+        <v>13888</v>
+      </c>
+      <c r="C2" s="13">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="14">
+        <v>13603</v>
+      </c>
+      <c r="C3" s="13">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="14">
+        <v>13333</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1</v>
+      </c>
+      <c r="D4" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="14">
+        <v>12033</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+      <c r="D5" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="14">
+        <v>12000</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1</v>
+      </c>
+      <c r="D6" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="14">
+        <v>11860</v>
+      </c>
+      <c r="C7" s="13">
+        <v>1</v>
+      </c>
+      <c r="D7" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="14">
+        <v>11821</v>
+      </c>
+      <c r="C8" s="13">
+        <v>1</v>
+      </c>
+      <c r="D8" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="14">
+        <v>11762</v>
+      </c>
+      <c r="C9" s="13">
+        <v>1</v>
+      </c>
+      <c r="D9" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="14">
+        <v>11667</v>
+      </c>
+      <c r="C10" s="13">
+        <v>1</v>
+      </c>
+      <c r="D10" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="14">
+        <v>11292</v>
+      </c>
+      <c r="C11" s="13">
+        <v>1</v>
+      </c>
+      <c r="D11" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="14">
+        <v>10833</v>
+      </c>
+      <c r="C12" s="13">
+        <v>1</v>
+      </c>
+      <c r="D12" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="14">
+        <v>10400</v>
+      </c>
+      <c r="C13" s="13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="14">
+        <v>10282</v>
+      </c>
+      <c r="C14" s="13">
+        <v>1</v>
+      </c>
+      <c r="D14" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="14">
+        <v>9792</v>
+      </c>
+      <c r="C15" s="13">
+        <v>1</v>
+      </c>
+      <c r="D15" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="14">
+        <v>9722</v>
+      </c>
+      <c r="C16" s="13">
+        <v>1</v>
+      </c>
+      <c r="D16" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="15">
+        <v>14152</v>
+      </c>
+      <c r="C17" s="13">
+        <v>2</v>
+      </c>
+      <c r="D17" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="15">
+        <v>12875</v>
+      </c>
+      <c r="C18" s="13">
+        <v>2</v>
+      </c>
+      <c r="D18" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="15">
+        <v>12672</v>
+      </c>
+      <c r="C19" s="13">
+        <v>2</v>
+      </c>
+      <c r="D19" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="15">
+        <v>12542</v>
+      </c>
+      <c r="C20" s="13">
+        <v>2</v>
+      </c>
+      <c r="D20" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="15">
+        <v>12206</v>
+      </c>
+      <c r="C21" s="13">
+        <v>2</v>
+      </c>
+      <c r="D21" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="15">
+        <v>12163</v>
+      </c>
+      <c r="C22" s="13">
+        <v>2</v>
+      </c>
+      <c r="D22" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="15">
+        <v>12162</v>
+      </c>
+      <c r="C23" s="13">
+        <v>2</v>
+      </c>
+      <c r="D23" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="15">
+        <v>11934</v>
+      </c>
+      <c r="C24" s="13">
+        <v>2</v>
+      </c>
+      <c r="D24" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="15">
+        <v>11040</v>
+      </c>
+      <c r="C25" s="13">
+        <v>2</v>
+      </c>
+      <c r="D25" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="15">
+        <v>10548</v>
+      </c>
+      <c r="C26" s="13">
+        <v>2</v>
+      </c>
+      <c r="D26" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="15">
+        <v>10548</v>
+      </c>
+      <c r="C27" s="13">
+        <v>2</v>
+      </c>
+      <c r="D27" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="15">
+        <v>10139</v>
+      </c>
+      <c r="C28" s="13">
+        <v>2</v>
+      </c>
+      <c r="D28" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="15">
+        <v>10122</v>
+      </c>
+      <c r="C29" s="13">
+        <v>2</v>
+      </c>
+      <c r="D29" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="15">
+        <v>10000</v>
+      </c>
+      <c r="C30" s="13">
+        <v>2</v>
+      </c>
+      <c r="D30" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="15">
+        <v>9880</v>
+      </c>
+      <c r="C31" s="13">
+        <v>2</v>
+      </c>
+      <c r="D31" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="16">
+        <v>13720</v>
+      </c>
+      <c r="C32" s="13">
+        <v>1</v>
+      </c>
+      <c r="D32" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="16">
+        <v>12042</v>
+      </c>
+      <c r="C33" s="13">
+        <v>1</v>
+      </c>
+      <c r="D33" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="16">
+        <v>11532</v>
+      </c>
+      <c r="C34" s="13">
+        <v>1</v>
+      </c>
+      <c r="D34" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="16">
+        <v>10000</v>
+      </c>
+      <c r="C35" s="13">
+        <v>1</v>
+      </c>
+      <c r="D35" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="16">
+        <v>9355</v>
+      </c>
+      <c r="C36" s="13">
+        <v>1</v>
+      </c>
+      <c r="D36" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="16">
+        <v>9235</v>
+      </c>
+      <c r="C37" s="13">
+        <v>1</v>
+      </c>
+      <c r="D37" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" s="16">
+        <v>8245</v>
+      </c>
+      <c r="C38" s="13">
+        <v>1</v>
+      </c>
+      <c r="D38" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" s="16">
+        <v>7963</v>
+      </c>
+      <c r="C39" s="13">
+        <v>1</v>
+      </c>
+      <c r="D39" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="16">
+        <v>7826</v>
+      </c>
+      <c r="C40" s="13">
+        <v>1</v>
+      </c>
+      <c r="D40" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" s="16">
+        <v>7743</v>
+      </c>
+      <c r="C41" s="13">
+        <v>1</v>
+      </c>
+      <c r="D41" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" s="16">
+        <v>7570</v>
+      </c>
+      <c r="C42" s="13">
+        <v>1</v>
+      </c>
+      <c r="D42" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="16">
+        <v>7308</v>
+      </c>
+      <c r="C43" s="13">
+        <v>1</v>
+      </c>
+      <c r="D43" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" s="16">
+        <v>7301</v>
+      </c>
+      <c r="C44" s="13">
+        <v>1</v>
+      </c>
+      <c r="D44" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="16">
+        <v>6900</v>
+      </c>
+      <c r="C45" s="13">
+        <v>1</v>
+      </c>
+      <c r="D45" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="16">
+        <v>6888</v>
+      </c>
+      <c r="C46" s="13">
+        <v>1</v>
+      </c>
+      <c r="D46" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" s="16">
+        <v>6527</v>
+      </c>
+      <c r="C47" s="13">
+        <v>1</v>
+      </c>
+      <c r="D47" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" s="16">
+        <v>12083</v>
+      </c>
+      <c r="C48" s="13">
+        <v>1</v>
+      </c>
+      <c r="D48" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" s="16">
+        <v>11411</v>
+      </c>
+      <c r="C49" s="13">
+        <v>1</v>
+      </c>
+      <c r="D49" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" s="16">
+        <v>11095</v>
+      </c>
+      <c r="C50" s="13">
+        <v>1</v>
+      </c>
+      <c r="D50" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" s="16">
+        <v>9822</v>
+      </c>
+      <c r="C51" s="13">
+        <v>1</v>
+      </c>
+      <c r="D51" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" s="16">
+        <v>9286</v>
+      </c>
+      <c r="C52" s="13">
+        <v>1</v>
+      </c>
+      <c r="D52" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53" s="16">
+        <v>7784</v>
+      </c>
+      <c r="C53" s="13">
+        <v>1</v>
+      </c>
+      <c r="D53" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B54" s="16">
+        <v>7439</v>
+      </c>
+      <c r="C54" s="13">
+        <v>1</v>
+      </c>
+      <c r="D54" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B55" s="16">
+        <v>7010</v>
+      </c>
+      <c r="C55" s="13">
+        <v>1</v>
+      </c>
+      <c r="D55" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" s="16">
+        <v>6719</v>
+      </c>
+      <c r="C56" s="13">
+        <v>1</v>
+      </c>
+      <c r="D56" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B57" s="16">
+        <v>6531</v>
+      </c>
+      <c r="C57" s="13">
+        <v>1</v>
+      </c>
+      <c r="D57" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B58" s="16">
+        <v>6440</v>
+      </c>
+      <c r="C58" s="13">
+        <v>1</v>
+      </c>
+      <c r="D58" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B59" s="16">
+        <v>6349</v>
+      </c>
+      <c r="C59" s="13">
+        <v>1</v>
+      </c>
+      <c r="D59" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B60" s="16">
+        <v>6284</v>
+      </c>
+      <c r="C60" s="13">
+        <v>1</v>
+      </c>
+      <c r="D60" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B61" s="16">
+        <v>5985</v>
+      </c>
+      <c r="C61" s="13">
+        <v>1</v>
+      </c>
+      <c r="D61" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B62" s="16">
+        <v>5877</v>
+      </c>
+      <c r="C62" s="13">
+        <v>1</v>
+      </c>
+      <c r="D62" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B63" s="16">
+        <v>5200</v>
+      </c>
+      <c r="C63" s="13">
+        <v>1</v>
+      </c>
+      <c r="D63" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B64" s="16">
+        <v>12971</v>
+      </c>
+      <c r="C64" s="13">
+        <v>2</v>
+      </c>
+      <c r="D64" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B65" s="16">
+        <v>12843</v>
+      </c>
+      <c r="C65" s="13">
+        <v>2</v>
+      </c>
+      <c r="D65" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B66" s="16">
+        <v>11017</v>
+      </c>
+      <c r="C66" s="13">
+        <v>2</v>
+      </c>
+      <c r="D66" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B67" s="16">
+        <v>8904</v>
+      </c>
+      <c r="C67" s="13">
+        <v>2</v>
+      </c>
+      <c r="D67" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B68" s="16">
+        <v>8636</v>
+      </c>
+      <c r="C68" s="13">
+        <v>2</v>
+      </c>
+      <c r="D68" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B69" s="16">
+        <v>8234</v>
+      </c>
+      <c r="C69" s="13">
+        <v>2</v>
+      </c>
+      <c r="D69" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B70" s="16">
+        <v>8077</v>
+      </c>
+      <c r="C70" s="13">
+        <v>2</v>
+      </c>
+      <c r="D70" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B71" s="16">
+        <v>7579</v>
+      </c>
+      <c r="C71" s="13">
+        <v>2</v>
+      </c>
+      <c r="D71" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B72" s="16">
+        <v>7407</v>
+      </c>
+      <c r="C72" s="13">
+        <v>2</v>
+      </c>
+      <c r="D72" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B73" s="16">
+        <v>7111</v>
+      </c>
+      <c r="C73" s="13">
+        <v>2</v>
+      </c>
+      <c r="D73" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B74" s="16">
+        <v>6804</v>
+      </c>
+      <c r="C74" s="13">
+        <v>2</v>
+      </c>
+      <c r="D74" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B75" s="16">
+        <v>6698</v>
+      </c>
+      <c r="C75" s="13">
+        <v>2</v>
+      </c>
+      <c r="D75" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B76" s="16">
+        <v>6696</v>
+      </c>
+      <c r="C76" s="13">
+        <v>2</v>
+      </c>
+      <c r="D76" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B77" s="16">
+        <v>6642</v>
+      </c>
+      <c r="C77" s="13">
+        <v>2</v>
+      </c>
+      <c r="D77" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B78" s="16">
+        <v>6414</v>
+      </c>
+      <c r="C78" s="13">
+        <v>2</v>
+      </c>
+      <c r="D78" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B79" s="16">
+        <v>5837</v>
+      </c>
+      <c r="C79" s="13">
+        <v>2</v>
+      </c>
+      <c r="D79" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B80" s="18">
+        <v>13721</v>
+      </c>
+      <c r="C80" s="13">
+        <v>2</v>
+      </c>
+      <c r="D80" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" s="18">
+        <v>13067</v>
+      </c>
+      <c r="C81" s="13">
+        <v>2</v>
+      </c>
+      <c r="D81" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" s="18">
+        <v>12727</v>
+      </c>
+      <c r="C82" s="13">
+        <v>2</v>
+      </c>
+      <c r="D82" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B83" s="18">
+        <v>11818</v>
+      </c>
+      <c r="C83" s="13">
+        <v>2</v>
+      </c>
+      <c r="D83" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B84" s="18">
+        <v>11629</v>
+      </c>
+      <c r="C84" s="13">
+        <v>2</v>
+      </c>
+      <c r="D84" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" s="18">
+        <v>11341</v>
+      </c>
+      <c r="C85" s="13">
+        <v>2</v>
+      </c>
+      <c r="D85" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B86" s="18">
+        <v>11023</v>
+      </c>
+      <c r="C86" s="13">
+        <v>2</v>
+      </c>
+      <c r="D86" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B87" s="18">
+        <v>10875</v>
+      </c>
+      <c r="C87" s="13">
+        <v>2</v>
+      </c>
+      <c r="D87" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B88" s="18">
+        <v>10257</v>
+      </c>
+      <c r="C88" s="13">
+        <v>2</v>
+      </c>
+      <c r="D88" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B89" s="18">
+        <v>10045</v>
+      </c>
+      <c r="C89" s="13">
+        <v>2</v>
+      </c>
+      <c r="D89" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B90" s="18">
+        <v>10000</v>
+      </c>
+      <c r="C90" s="13">
+        <v>2</v>
+      </c>
+      <c r="D90" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91" s="18">
+        <v>9947</v>
+      </c>
+      <c r="C91" s="13">
+        <v>2</v>
+      </c>
+      <c r="D91" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B92" s="18">
+        <v>9917</v>
+      </c>
+      <c r="C92" s="13">
+        <v>2</v>
+      </c>
+      <c r="D92" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B93" s="18">
+        <v>9857</v>
+      </c>
+      <c r="C93" s="13">
+        <v>2</v>
+      </c>
+      <c r="D93" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B94" s="18">
+        <v>9800</v>
+      </c>
+      <c r="C94" s="13">
+        <v>2</v>
+      </c>
+      <c r="D94" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B95" s="18">
+        <v>13446</v>
+      </c>
+      <c r="C95" s="13">
+        <v>3</v>
+      </c>
+      <c r="D95" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B96" s="18">
+        <v>12273</v>
+      </c>
+      <c r="C96" s="13">
+        <v>3</v>
+      </c>
+      <c r="D96" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B97" s="18">
+        <v>11405</v>
+      </c>
+      <c r="C97" s="13">
+        <v>3</v>
+      </c>
+      <c r="D97" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B98" s="18">
+        <v>10639</v>
+      </c>
+      <c r="C98" s="13">
+        <v>3</v>
+      </c>
+      <c r="D98" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B99" s="18">
+        <v>8382</v>
+      </c>
+      <c r="C99" s="13">
+        <v>3</v>
+      </c>
+      <c r="D99" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B100" s="18">
+        <v>7084</v>
+      </c>
+      <c r="C100" s="13">
+        <v>3</v>
+      </c>
+      <c r="D100" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B101" s="18">
+        <v>7051</v>
+      </c>
+      <c r="C101" s="13">
+        <v>3</v>
+      </c>
+      <c r="D101" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B102" s="18">
+        <v>7000</v>
+      </c>
+      <c r="C102" s="13">
+        <v>3</v>
+      </c>
+      <c r="D102" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B103" s="18">
+        <v>6899</v>
+      </c>
+      <c r="C103" s="13">
+        <v>3</v>
+      </c>
+      <c r="D103" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B104" s="18">
+        <v>6786</v>
+      </c>
+      <c r="C104" s="13">
+        <v>3</v>
+      </c>
+      <c r="D104" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B105" s="18">
+        <v>6667</v>
+      </c>
+      <c r="C105" s="13">
+        <v>3</v>
+      </c>
+      <c r="D105" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B106" s="18">
+        <v>6509</v>
+      </c>
+      <c r="C106" s="13">
+        <v>3</v>
+      </c>
+      <c r="D106" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B107" s="18">
+        <v>6500</v>
+      </c>
+      <c r="C107" s="13">
+        <v>3</v>
+      </c>
+      <c r="D107" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B108" s="18">
+        <v>6312</v>
+      </c>
+      <c r="C108" s="13">
+        <v>3</v>
+      </c>
+      <c r="D108" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B109" s="18">
+        <v>6253</v>
+      </c>
+      <c r="C109" s="13">
+        <v>3</v>
+      </c>
+      <c r="D109" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B110" s="18">
+        <v>6047</v>
+      </c>
+      <c r="C110" s="13">
+        <v>3</v>
+      </c>
+      <c r="D110" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B111" s="18">
+        <v>13846</v>
+      </c>
+      <c r="C111" s="13">
+        <v>3</v>
+      </c>
+      <c r="D111" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B112" s="18">
+        <v>13832</v>
+      </c>
+      <c r="C112" s="13">
+        <v>3</v>
+      </c>
+      <c r="D112" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B113" s="18">
+        <v>13393</v>
+      </c>
+      <c r="C113" s="13">
+        <v>3</v>
+      </c>
+      <c r="D113" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B114" s="18">
+        <v>12500</v>
+      </c>
+      <c r="C114" s="13">
+        <v>3</v>
+      </c>
+      <c r="D114" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B115" s="18">
+        <v>12063</v>
+      </c>
+      <c r="C115" s="13">
+        <v>3</v>
+      </c>
+      <c r="D115" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B116" s="18">
+        <v>10617</v>
+      </c>
+      <c r="C116" s="13">
+        <v>3</v>
+      </c>
+      <c r="D116" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B117" s="18">
+        <v>10580</v>
+      </c>
+      <c r="C117" s="13">
+        <v>3</v>
+      </c>
+      <c r="D117" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B118" s="18">
+        <v>10299</v>
+      </c>
+      <c r="C118" s="13">
+        <v>3</v>
+      </c>
+      <c r="D118" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B119" s="18">
+        <v>9674</v>
+      </c>
+      <c r="C119" s="13">
+        <v>3</v>
+      </c>
+      <c r="D119" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B120" s="18">
+        <v>9632</v>
+      </c>
+      <c r="C120" s="13">
+        <v>3</v>
+      </c>
+      <c r="D120" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B121" s="18">
+        <v>9545</v>
+      </c>
+      <c r="C121" s="13">
+        <v>3</v>
+      </c>
+      <c r="D121" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B122" s="18">
+        <v>9538</v>
+      </c>
+      <c r="C122" s="13">
+        <v>3</v>
+      </c>
+      <c r="D122" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B123" s="18">
+        <v>9531</v>
+      </c>
+      <c r="C123" s="13">
+        <v>3</v>
+      </c>
+      <c r="D123" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B124" s="18">
+        <v>9467</v>
+      </c>
+      <c r="C124" s="13">
+        <v>3</v>
+      </c>
+      <c r="D124" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B125" s="18">
+        <v>9353</v>
+      </c>
+      <c r="C125" s="13">
+        <v>3</v>
+      </c>
+      <c r="D125" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B126" s="18">
+        <v>14074</v>
+      </c>
+      <c r="C126" s="13">
+        <v>4</v>
+      </c>
+      <c r="D126" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A127" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B127" s="18">
+        <v>13000</v>
+      </c>
+      <c r="C127" s="13">
+        <v>4</v>
+      </c>
+      <c r="D127" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A128" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B128" s="18">
+        <v>12889</v>
+      </c>
+      <c r="C128" s="13">
+        <v>4</v>
+      </c>
+      <c r="D128" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A129" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B129" s="18">
+        <v>12308</v>
+      </c>
+      <c r="C129" s="13">
+        <v>4</v>
+      </c>
+      <c r="D129" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A130" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B130" s="18">
+        <v>11860</v>
+      </c>
+      <c r="C130" s="13">
+        <v>4</v>
+      </c>
+      <c r="D130" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B131" s="18">
+        <v>11728</v>
+      </c>
+      <c r="C131" s="13">
+        <v>4</v>
+      </c>
+      <c r="D131" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B132" s="18">
+        <v>10961</v>
+      </c>
+      <c r="C132" s="13">
+        <v>4</v>
+      </c>
+      <c r="D132" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B133" s="18">
+        <v>10692</v>
+      </c>
+      <c r="C133" s="13">
+        <v>4</v>
+      </c>
+      <c r="D133" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B134" s="18">
+        <v>10526</v>
+      </c>
+      <c r="C134" s="13">
+        <v>4</v>
+      </c>
+      <c r="D134" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B135" s="18">
+        <v>10400</v>
+      </c>
+      <c r="C135" s="13">
+        <v>4</v>
+      </c>
+      <c r="D135" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A136" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B136" s="18">
+        <v>10213</v>
+      </c>
+      <c r="C136" s="13">
+        <v>4</v>
+      </c>
+      <c r="D136" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A137" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B137" s="18">
+        <v>10145</v>
+      </c>
+      <c r="C137" s="13">
+        <v>4</v>
+      </c>
+      <c r="D137" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A138" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B138" s="18">
+        <v>10068</v>
+      </c>
+      <c r="C138" s="13">
+        <v>4</v>
+      </c>
+      <c r="D138" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A139" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B139" s="18">
+        <v>10000</v>
+      </c>
+      <c r="C139" s="13">
+        <v>4</v>
+      </c>
+      <c r="D139" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A140" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B140" s="18">
+        <v>9868</v>
+      </c>
+      <c r="C140" s="13">
+        <v>4</v>
+      </c>
+      <c r="D140" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A141" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B141" s="18">
+        <v>12206</v>
+      </c>
+      <c r="C141" s="13">
+        <v>4</v>
+      </c>
+      <c r="D141" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A142" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B142" s="18">
+        <v>11842</v>
+      </c>
+      <c r="C142" s="13">
+        <v>4</v>
+      </c>
+      <c r="D142" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A143" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B143" s="18">
+        <v>11517</v>
+      </c>
+      <c r="C143" s="13">
+        <v>4</v>
+      </c>
+      <c r="D143" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A144" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B144" s="18">
+        <v>9667</v>
+      </c>
+      <c r="C144" s="13">
+        <v>4</v>
+      </c>
+      <c r="D144" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A145" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B145" s="18">
+        <v>8276</v>
+      </c>
+      <c r="C145" s="13">
+        <v>4</v>
+      </c>
+      <c r="D145" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A146" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B146" s="18">
+        <v>7857</v>
+      </c>
+      <c r="C146" s="13">
+        <v>4</v>
+      </c>
+      <c r="D146" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A147" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B147" s="18">
+        <v>7585</v>
+      </c>
+      <c r="C147" s="13">
+        <v>4</v>
+      </c>
+      <c r="D147" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A148" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B148" s="18">
+        <v>7500</v>
+      </c>
+      <c r="C148" s="13">
+        <v>4</v>
+      </c>
+      <c r="D148" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A149" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B149" s="18">
+        <v>7189</v>
+      </c>
+      <c r="C149" s="13">
+        <v>4</v>
+      </c>
+      <c r="D149" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A150" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B150" s="18">
+        <v>6986</v>
+      </c>
+      <c r="C150" s="13">
+        <v>4</v>
+      </c>
+      <c r="D150" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A151" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B151" s="18">
+        <v>6853</v>
+      </c>
+      <c r="C151" s="13">
+        <v>4</v>
+      </c>
+      <c r="D151" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A152" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B152" s="18">
+        <v>6769</v>
+      </c>
+      <c r="C152" s="13">
+        <v>4</v>
+      </c>
+      <c r="D152" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A153" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B153" s="18">
+        <v>6389</v>
+      </c>
+      <c r="C153" s="13">
+        <v>4</v>
+      </c>
+      <c r="D153" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A154" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B154" s="18">
+        <v>6250</v>
+      </c>
+      <c r="C154" s="13">
+        <v>4</v>
+      </c>
+      <c r="D154" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A155" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B155" s="18">
+        <v>6198</v>
+      </c>
+      <c r="C155" s="13">
+        <v>4</v>
+      </c>
+      <c r="D155" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A156" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B156" s="18">
+        <v>6000</v>
+      </c>
+      <c r="C156" s="13">
+        <v>4</v>
+      </c>
+      <c r="D156" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A157" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B157" s="18">
+        <v>5524</v>
+      </c>
+      <c r="C157" s="13">
+        <v>4</v>
+      </c>
+      <c r="D157" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D03E0B-BE0B-4626-A487-7653E406F2FE}">
+  <dimension ref="A1:D60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="13">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="13">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1</v>
+      </c>
+      <c r="D4" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+      <c r="D5" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1</v>
+      </c>
+      <c r="D6" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="19">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="C7" s="13">
+        <v>2</v>
+      </c>
+      <c r="D7" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="19">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="C8" s="13">
+        <v>2</v>
+      </c>
+      <c r="D8" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="C9" s="13">
+        <v>2</v>
+      </c>
+      <c r="D9" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="19">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="C10" s="13">
+        <v>2</v>
+      </c>
+      <c r="D10" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="20">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="C11" s="13">
+        <v>1</v>
+      </c>
+      <c r="D11" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="20">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="C12" s="13">
+        <v>1</v>
+      </c>
+      <c r="D12" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="20">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="C13" s="13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="20">
+        <v>0.245</v>
+      </c>
+      <c r="C14" s="13">
+        <v>1</v>
+      </c>
+      <c r="D14" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="20">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="C15" s="13">
+        <v>1</v>
+      </c>
+      <c r="D15" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="20">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="C16" s="13">
+        <v>1</v>
+      </c>
+      <c r="D16" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="20">
+        <v>0.251</v>
+      </c>
+      <c r="C17" s="13">
+        <v>1</v>
+      </c>
+      <c r="D17" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="20">
+        <v>0.158</v>
+      </c>
+      <c r="C18" s="13">
+        <v>1</v>
+      </c>
+      <c r="D18" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="20">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="C19" s="13">
+        <v>1</v>
+      </c>
+      <c r="D19" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="20">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="C20" s="13">
+        <v>1</v>
+      </c>
+      <c r="D20" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="20">
+        <v>6.3E-2</v>
+      </c>
+      <c r="C21" s="13">
+        <v>1</v>
+      </c>
+      <c r="D21" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="20">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="C22" s="13">
+        <v>1</v>
+      </c>
+      <c r="D22" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="20">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="C23" s="13">
+        <v>1</v>
+      </c>
+      <c r="D23" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="20">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C24" s="13">
+        <v>1</v>
+      </c>
+      <c r="D24" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="22">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="C25" s="13">
+        <v>2</v>
+      </c>
+      <c r="D25" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="22">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="C26" s="13">
+        <v>2</v>
+      </c>
+      <c r="D26" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="22">
+        <v>0.127</v>
+      </c>
+      <c r="C27" s="13">
+        <v>2</v>
+      </c>
+      <c r="D27" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="22">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="C28" s="13">
+        <v>2</v>
+      </c>
+      <c r="D28" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="22">
+        <v>0.06</v>
+      </c>
+      <c r="C29" s="13">
+        <v>2</v>
+      </c>
+      <c r="D29" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="22">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C30" s="13">
+        <v>2</v>
+      </c>
+      <c r="D30" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="22">
+        <v>2E-3</v>
+      </c>
+      <c r="C31" s="13">
+        <v>2</v>
+      </c>
+      <c r="D31" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" s="22">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="C32" s="13">
+        <v>2</v>
+      </c>
+      <c r="D32" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="C33" s="13">
+        <v>2</v>
+      </c>
+      <c r="D33" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" s="22">
+        <v>0.245</v>
+      </c>
+      <c r="C34" s="13">
+        <v>2</v>
+      </c>
+      <c r="D34" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35" s="22">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="C35" s="13">
+        <v>2</v>
+      </c>
+      <c r="D35" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="22">
+        <v>0.152</v>
+      </c>
+      <c r="C36" s="13">
+        <v>2</v>
+      </c>
+      <c r="D36" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="22">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="C37" s="13">
+        <v>3</v>
+      </c>
+      <c r="D37" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="22">
+        <v>0.112</v>
+      </c>
+      <c r="C38" s="13">
+        <v>3</v>
+      </c>
+      <c r="D38" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="22">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="C39" s="13">
+        <v>3</v>
+      </c>
+      <c r="D39" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="22">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="C40" s="13">
+        <v>3</v>
+      </c>
+      <c r="D40" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" s="22">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="C41" s="13">
+        <v>3</v>
+      </c>
+      <c r="D41" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="22">
+        <v>0.03</v>
+      </c>
+      <c r="C42" s="13">
+        <v>3</v>
+      </c>
+      <c r="D42" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="22">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="C43" s="13">
+        <v>3</v>
+      </c>
+      <c r="D43" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B44" s="22">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="C44" s="13">
+        <v>3</v>
+      </c>
+      <c r="D44" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B45" s="22">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="C45" s="13">
+        <v>3</v>
+      </c>
+      <c r="D45" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46" s="22">
+        <v>0.247</v>
+      </c>
+      <c r="C46" s="13">
+        <v>3</v>
+      </c>
+      <c r="D46" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="22">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="C47" s="13">
+        <v>3</v>
+      </c>
+      <c r="D47" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B48" s="22">
+        <v>0.192</v>
+      </c>
+      <c r="C48" s="13">
+        <v>3</v>
+      </c>
+      <c r="D48" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" s="22">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="C49" s="13">
+        <v>4</v>
+      </c>
+      <c r="D49" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B50" s="22">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="C50" s="13">
+        <v>4</v>
+      </c>
+      <c r="D50" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" s="22">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="C51" s="13">
+        <v>4</v>
+      </c>
+      <c r="D51" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B52" s="22">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="C52" s="13">
+        <v>4</v>
+      </c>
+      <c r="D52" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B53" s="22">
+        <v>0.22</v>
+      </c>
+      <c r="C53" s="13">
+        <v>4</v>
+      </c>
+      <c r="D53" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54" s="22">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C54" s="13">
+        <v>4</v>
+      </c>
+      <c r="D54" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B55" s="22">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="C55" s="13">
+        <v>4</v>
+      </c>
+      <c r="D55" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" s="22">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="C56" s="13">
+        <v>4</v>
+      </c>
+      <c r="D56" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" s="22">
+        <v>0.109</v>
+      </c>
+      <c r="C57" s="13">
+        <v>4</v>
+      </c>
+      <c r="D57" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B58" s="22">
+        <v>0.109</v>
+      </c>
+      <c r="C58" s="13">
+        <v>4</v>
+      </c>
+      <c r="D58" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B59" s="22">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="C59" s="13">
+        <v>4</v>
+      </c>
+      <c r="D59" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B60" s="22">
+        <v>3.9E-2</v>
+      </c>
+      <c r="C60" s="13">
+        <v>4</v>
+      </c>
+      <c r="D60" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF73EDB-FB88-4A29-B268-F84747796B00}">
+  <dimension ref="A1:D41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="13">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="13">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1</v>
+      </c>
+      <c r="D4" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+      <c r="D5" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1</v>
+      </c>
+      <c r="D6" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="19">
+        <v>-8.3000000000000004E-2</v>
+      </c>
+      <c r="C7" s="13">
+        <v>2</v>
+      </c>
+      <c r="D7" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="19">
+        <v>-9.2999999999999999E-2</v>
+      </c>
+      <c r="C8" s="13">
+        <v>2</v>
+      </c>
+      <c r="D8" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="19">
+        <v>-9.5000000000000001E-2</v>
+      </c>
+      <c r="C9" s="13">
+        <v>2</v>
+      </c>
+      <c r="D9" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="19">
+        <v>-0.111</v>
+      </c>
+      <c r="C10" s="13">
+        <v>2</v>
+      </c>
+      <c r="D10" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" s="19">
+        <v>-0.128</v>
+      </c>
+      <c r="C11" s="13">
+        <v>2</v>
+      </c>
+      <c r="D11" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" s="20">
+        <v>-0.13</v>
+      </c>
+      <c r="C12" s="13">
+        <v>1</v>
+      </c>
+      <c r="D12" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="20">
+        <v>-0.13100000000000001</v>
+      </c>
+      <c r="C13" s="13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="20">
+        <v>-0.14899999999999999</v>
+      </c>
+      <c r="C14" s="13">
+        <v>1</v>
+      </c>
+      <c r="D14" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="20">
+        <v>-0.16900000000000001</v>
+      </c>
+      <c r="C15" s="13">
+        <v>1</v>
+      </c>
+      <c r="D15" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="20">
+        <v>-0.26400000000000001</v>
+      </c>
+      <c r="C16" s="13">
+        <v>1</v>
+      </c>
+      <c r="D16" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="20">
+        <v>-0.105</v>
+      </c>
+      <c r="C17" s="13">
+        <v>1</v>
+      </c>
+      <c r="D17" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="23">
+        <v>-2.1999999999999999E-2</v>
+      </c>
+      <c r="C18" s="13">
+        <v>2</v>
+      </c>
+      <c r="D18" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="23">
+        <v>-2.5999999999999999E-2</v>
+      </c>
+      <c r="C19" s="13">
+        <v>2</v>
+      </c>
+      <c r="D19" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="23">
+        <v>-0.14299999999999999</v>
+      </c>
+      <c r="C20" s="13">
+        <v>2</v>
+      </c>
+      <c r="D20" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" s="23">
+        <v>-0.13300000000000001</v>
+      </c>
+      <c r="C21" s="13">
+        <v>2</v>
+      </c>
+      <c r="D21" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="23">
+        <v>-0.14899999999999999</v>
+      </c>
+      <c r="C22" s="13">
+        <v>2</v>
+      </c>
+      <c r="D22" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="23">
+        <v>-0.154</v>
+      </c>
+      <c r="C23" s="13">
+        <v>2</v>
+      </c>
+      <c r="D23" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="23">
+        <v>-0.16300000000000001</v>
+      </c>
+      <c r="C24" s="13">
+        <v>2</v>
+      </c>
+      <c r="D24" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="23">
+        <v>-0.34200000000000003</v>
+      </c>
+      <c r="C25" s="13">
+        <v>2</v>
+      </c>
+      <c r="D25" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="23">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="C26" s="13">
+        <v>3</v>
+      </c>
+      <c r="D26" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="23">
+        <v>-4.8000000000000001E-2</v>
+      </c>
+      <c r="C27" s="13">
+        <v>3</v>
+      </c>
+      <c r="D27" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="23">
+        <v>-0.21</v>
+      </c>
+      <c r="C28" s="13">
+        <v>3</v>
+      </c>
+      <c r="D28" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B29" s="23">
+        <v>-0.107</v>
+      </c>
+      <c r="C29" s="13">
+        <v>3</v>
+      </c>
+      <c r="D29" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" s="23">
+        <v>-0.13900000000000001</v>
+      </c>
+      <c r="C30" s="13">
+        <v>3</v>
+      </c>
+      <c r="D30" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" s="23">
+        <v>-0.158</v>
+      </c>
+      <c r="C31" s="13">
+        <v>3</v>
+      </c>
+      <c r="D31" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B32" s="23">
+        <v>-0.19</v>
+      </c>
+      <c r="C32" s="13">
+        <v>3</v>
+      </c>
+      <c r="D32" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="23">
+        <v>-0.24199999999999999</v>
+      </c>
+      <c r="C33" s="13">
+        <v>3</v>
+      </c>
+      <c r="D33" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" s="23">
+        <v>-9.6000000000000002E-2</v>
+      </c>
+      <c r="C34" s="13">
+        <v>4</v>
+      </c>
+      <c r="D34" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" s="23">
+        <v>-0.1</v>
+      </c>
+      <c r="C35" s="13">
+        <v>4</v>
+      </c>
+      <c r="D35" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B36" s="23">
+        <v>-0.12</v>
+      </c>
+      <c r="C36" s="13">
+        <v>4</v>
+      </c>
+      <c r="D36" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="23">
+        <v>-0.152</v>
+      </c>
+      <c r="C37" s="13">
+        <v>4</v>
+      </c>
+      <c r="D37" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B38" s="23">
+        <v>-0.28499999999999998</v>
+      </c>
+      <c r="C38" s="13">
+        <v>4</v>
+      </c>
+      <c r="D38" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="23">
+        <v>-4.4999999999999998E-2</v>
+      </c>
+      <c r="C39" s="13">
+        <v>4</v>
+      </c>
+      <c r="D39" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" s="23">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+      <c r="C40" s="13">
+        <v>4</v>
+      </c>
+      <c r="D40" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="23">
+        <v>-0.17</v>
+      </c>
+      <c r="C41" s="13">
+        <v>4</v>
+      </c>
+      <c r="D41" s="13">
+        <v>2023</v>
       </c>
     </row>
   </sheetData>

--- a/relatoriosTrimestrais.xlsx
+++ b/relatoriosTrimestrais.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PAULO\Documents\Banco de dados\2 semestre\Projeto aplicado I\Etapa 1\arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7D63CB-9B93-4E02-9E0F-40E9CABF5B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB02CF15-55F6-4E8D-B89B-53E0F39754E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="795" activeTab="1" xr2:uid="{9C03FB36-0240-4C33-A1BB-C4F85DC54635}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="795" firstSheet="3" activeTab="3" xr2:uid="{9C03FB36-0240-4C33-A1BB-C4F85DC54635}"/>
   </bookViews>
   <sheets>
     <sheet name="Preço contrato" sheetId="1" r:id="rId1"/>
     <sheet name="Preço mediano m2" sheetId="2" r:id="rId2"/>
     <sheet name="Rentabilidade por quartos" sheetId="3" r:id="rId3"/>
     <sheet name="Rentabilidade por zona" sheetId="4" r:id="rId4"/>
-    <sheet name="Filtros mais usados" sheetId="6" r:id="rId5"/>
-    <sheet name="Bairros mais procurados" sheetId="5" r:id="rId6"/>
-    <sheet name="Bairros mais caros" sheetId="8" r:id="rId7"/>
-    <sheet name="Bairros mais valorizados" sheetId="9" r:id="rId8"/>
-    <sheet name="Bairros mais desvalorizados" sheetId="10" r:id="rId9"/>
+    <sheet name="Valores por zona" sheetId="11" r:id="rId5"/>
+    <sheet name="Filtros mais usados" sheetId="6" r:id="rId6"/>
+    <sheet name="Bairros mais procurados" sheetId="5" r:id="rId7"/>
+    <sheet name="Bairros mais caros" sheetId="8" r:id="rId8"/>
+    <sheet name="Bairros mais valorizados" sheetId="9" r:id="rId9"/>
+    <sheet name="Bairros mais desvalorizados" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Rentabilidade por quartos'!$A$1:$D$14</definedName>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="154">
   <si>
     <t>Trimestre/Ano</t>
   </si>
@@ -503,6 +504,12 @@
   </si>
   <si>
     <t>Ano</t>
+  </si>
+  <si>
+    <t>Região</t>
+  </si>
+  <si>
+    <t>Valor</t>
   </si>
 </sst>
 </file>
@@ -622,7 +629,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -697,6 +704,21 @@
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1262,11 +1284,603 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF73EDB-FB88-4A29-B268-F84747796B00}">
+  <dimension ref="A1:D41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="13">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="13">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1</v>
+      </c>
+      <c r="D4" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+      <c r="D5" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1</v>
+      </c>
+      <c r="D6" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="19">
+        <v>-8.3000000000000004E-2</v>
+      </c>
+      <c r="C7" s="13">
+        <v>2</v>
+      </c>
+      <c r="D7" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="19">
+        <v>-9.2999999999999999E-2</v>
+      </c>
+      <c r="C8" s="13">
+        <v>2</v>
+      </c>
+      <c r="D8" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="19">
+        <v>-9.5000000000000001E-2</v>
+      </c>
+      <c r="C9" s="13">
+        <v>2</v>
+      </c>
+      <c r="D9" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="19">
+        <v>-0.111</v>
+      </c>
+      <c r="C10" s="13">
+        <v>2</v>
+      </c>
+      <c r="D10" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" s="19">
+        <v>-0.128</v>
+      </c>
+      <c r="C11" s="13">
+        <v>2</v>
+      </c>
+      <c r="D11" s="13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" s="20">
+        <v>-0.13</v>
+      </c>
+      <c r="C12" s="13">
+        <v>1</v>
+      </c>
+      <c r="D12" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="20">
+        <v>-0.13100000000000001</v>
+      </c>
+      <c r="C13" s="13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="20">
+        <v>-0.14899999999999999</v>
+      </c>
+      <c r="C14" s="13">
+        <v>1</v>
+      </c>
+      <c r="D14" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="20">
+        <v>-0.16900000000000001</v>
+      </c>
+      <c r="C15" s="13">
+        <v>1</v>
+      </c>
+      <c r="D15" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="20">
+        <v>-0.26400000000000001</v>
+      </c>
+      <c r="C16" s="13">
+        <v>1</v>
+      </c>
+      <c r="D16" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="20">
+        <v>-0.105</v>
+      </c>
+      <c r="C17" s="13">
+        <v>1</v>
+      </c>
+      <c r="D17" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="23">
+        <v>-2.1999999999999999E-2</v>
+      </c>
+      <c r="C18" s="13">
+        <v>2</v>
+      </c>
+      <c r="D18" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="23">
+        <v>-2.5999999999999999E-2</v>
+      </c>
+      <c r="C19" s="13">
+        <v>2</v>
+      </c>
+      <c r="D19" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="23">
+        <v>-0.14299999999999999</v>
+      </c>
+      <c r="C20" s="13">
+        <v>2</v>
+      </c>
+      <c r="D20" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" s="23">
+        <v>-0.13300000000000001</v>
+      </c>
+      <c r="C21" s="13">
+        <v>2</v>
+      </c>
+      <c r="D21" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="23">
+        <v>-0.14899999999999999</v>
+      </c>
+      <c r="C22" s="13">
+        <v>2</v>
+      </c>
+      <c r="D22" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="23">
+        <v>-0.154</v>
+      </c>
+      <c r="C23" s="13">
+        <v>2</v>
+      </c>
+      <c r="D23" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="23">
+        <v>-0.16300000000000001</v>
+      </c>
+      <c r="C24" s="13">
+        <v>2</v>
+      </c>
+      <c r="D24" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="23">
+        <v>-0.34200000000000003</v>
+      </c>
+      <c r="C25" s="13">
+        <v>2</v>
+      </c>
+      <c r="D25" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="23">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="C26" s="13">
+        <v>3</v>
+      </c>
+      <c r="D26" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="23">
+        <v>-4.8000000000000001E-2</v>
+      </c>
+      <c r="C27" s="13">
+        <v>3</v>
+      </c>
+      <c r="D27" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="23">
+        <v>-0.21</v>
+      </c>
+      <c r="C28" s="13">
+        <v>3</v>
+      </c>
+      <c r="D28" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B29" s="23">
+        <v>-0.107</v>
+      </c>
+      <c r="C29" s="13">
+        <v>3</v>
+      </c>
+      <c r="D29" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" s="23">
+        <v>-0.13900000000000001</v>
+      </c>
+      <c r="C30" s="13">
+        <v>3</v>
+      </c>
+      <c r="D30" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" s="23">
+        <v>-0.158</v>
+      </c>
+      <c r="C31" s="13">
+        <v>3</v>
+      </c>
+      <c r="D31" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B32" s="23">
+        <v>-0.19</v>
+      </c>
+      <c r="C32" s="13">
+        <v>3</v>
+      </c>
+      <c r="D32" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="23">
+        <v>-0.24199999999999999</v>
+      </c>
+      <c r="C33" s="13">
+        <v>3</v>
+      </c>
+      <c r="D33" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" s="23">
+        <v>-9.6000000000000002E-2</v>
+      </c>
+      <c r="C34" s="13">
+        <v>4</v>
+      </c>
+      <c r="D34" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" s="23">
+        <v>-0.1</v>
+      </c>
+      <c r="C35" s="13">
+        <v>4</v>
+      </c>
+      <c r="D35" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B36" s="23">
+        <v>-0.12</v>
+      </c>
+      <c r="C36" s="13">
+        <v>4</v>
+      </c>
+      <c r="D36" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="23">
+        <v>-0.152</v>
+      </c>
+      <c r="C37" s="13">
+        <v>4</v>
+      </c>
+      <c r="D37" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B38" s="23">
+        <v>-0.28499999999999998</v>
+      </c>
+      <c r="C38" s="13">
+        <v>4</v>
+      </c>
+      <c r="D38" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="23">
+        <v>-4.4999999999999998E-2</v>
+      </c>
+      <c r="C39" s="13">
+        <v>4</v>
+      </c>
+      <c r="D39" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" s="23">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+      <c r="C40" s="13">
+        <v>4</v>
+      </c>
+      <c r="D40" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="23">
+        <v>-0.17</v>
+      </c>
+      <c r="C41" s="13">
+        <v>4</v>
+      </c>
+      <c r="D41" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E278E758-A6AF-4E2B-9194-5ECF02EE216D}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1799,8 +2413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E94769-0EFC-4C1D-AF18-29ECB73DC964}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="E5:G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1808,7 +2422,11 @@
     <col min="1" max="1" width="13.1796875" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.90625" style="7" customWidth="1"/>
     <col min="4" max="4" width="12.36328125" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="7"/>
+    <col min="5" max="11" width="8.7265625" style="7"/>
+    <col min="12" max="12" width="13.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.7265625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -2223,10 +2841,1164 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5FD0B3F-3D2D-4629-A096-E651816EBB6A}">
+  <dimension ref="A1:D81"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D81"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="28">
+        <v>10379.700000000001</v>
+      </c>
+      <c r="C2" s="7">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="28">
+        <v>9595.7000000000007</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="28">
+        <v>7312.4</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="28">
+        <v>6549.7</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="28">
+        <v>6500</v>
+      </c>
+      <c r="C6" s="7">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="28">
+        <v>6200</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="28">
+        <v>5667.4</v>
+      </c>
+      <c r="C8" s="7">
+        <v>2</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="28">
+        <v>5323.5</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="30">
+        <v>10625</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="30">
+        <v>9372.5</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="30">
+        <v>7500</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="30">
+        <v>6730.8</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="30">
+        <v>6200</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="30">
+        <v>6040</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="30">
+        <v>5928.6</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="30">
+        <v>4900</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="30">
+        <v>10549.2</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="30">
+        <v>9259.2999999999993</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="30">
+        <v>7692.3</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="30">
+        <v>6485.3</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1</v>
+      </c>
+      <c r="D21" s="7">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="30">
+        <v>6380.9</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1</v>
+      </c>
+      <c r="D22" s="7">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="30">
+        <v>6315.6</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1</v>
+      </c>
+      <c r="D23" s="7">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="30">
+        <v>5902.8</v>
+      </c>
+      <c r="C24" s="7">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="30">
+        <v>5000</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="30">
+        <v>9758.1</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="30">
+        <v>8823.5</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1</v>
+      </c>
+      <c r="D27" s="7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="30">
+        <v>7042.9</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1</v>
+      </c>
+      <c r="D28" s="7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="30">
+        <v>6142.9</v>
+      </c>
+      <c r="C29" s="7">
+        <v>1</v>
+      </c>
+      <c r="D29" s="7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="30">
+        <v>6064.3</v>
+      </c>
+      <c r="C30" s="7">
+        <v>1</v>
+      </c>
+      <c r="D30" s="7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="30">
+        <v>5966.7</v>
+      </c>
+      <c r="C31" s="7">
+        <v>1</v>
+      </c>
+      <c r="D31" s="7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="30">
+        <v>5833.3</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="30">
+        <v>4750</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1</v>
+      </c>
+      <c r="D33" s="7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="30">
+        <v>10551.4</v>
+      </c>
+      <c r="C34" s="7">
+        <v>2</v>
+      </c>
+      <c r="D34" s="7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="30">
+        <v>8599.1</v>
+      </c>
+      <c r="C35" s="7">
+        <v>2</v>
+      </c>
+      <c r="D35" s="7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="30">
+        <v>6875</v>
+      </c>
+      <c r="C36" s="7">
+        <v>2</v>
+      </c>
+      <c r="D36" s="7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="30">
+        <v>6490.7</v>
+      </c>
+      <c r="C37" s="7">
+        <v>2</v>
+      </c>
+      <c r="D37" s="7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="30">
+        <v>6323.8</v>
+      </c>
+      <c r="C38" s="7">
+        <v>2</v>
+      </c>
+      <c r="D38" s="7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="30">
+        <v>6181.8</v>
+      </c>
+      <c r="C39" s="7">
+        <v>2</v>
+      </c>
+      <c r="D39" s="7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="30">
+        <v>5977.8</v>
+      </c>
+      <c r="C40" s="7">
+        <v>2</v>
+      </c>
+      <c r="D40" s="7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="30">
+        <v>5135.1000000000004</v>
+      </c>
+      <c r="C41" s="7">
+        <v>2</v>
+      </c>
+      <c r="D41" s="7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="30">
+        <v>10933.3</v>
+      </c>
+      <c r="C42" s="7">
+        <v>2</v>
+      </c>
+      <c r="D42" s="7">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" s="30">
+        <v>9444.4</v>
+      </c>
+      <c r="C43" s="7">
+        <v>2</v>
+      </c>
+      <c r="D43" s="7">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="30">
+        <v>7272.7</v>
+      </c>
+      <c r="C44" s="7">
+        <v>2</v>
+      </c>
+      <c r="D44" s="7">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="30">
+        <v>6923.1</v>
+      </c>
+      <c r="C45" s="7">
+        <v>2</v>
+      </c>
+      <c r="D45" s="7">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="30">
+        <v>6428.6</v>
+      </c>
+      <c r="C46" s="7">
+        <v>2</v>
+      </c>
+      <c r="D46" s="7">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="30">
+        <v>6428.6</v>
+      </c>
+      <c r="C47" s="7">
+        <v>2</v>
+      </c>
+      <c r="D47" s="7">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="30">
+        <v>6216.2</v>
+      </c>
+      <c r="C48" s="7">
+        <v>2</v>
+      </c>
+      <c r="D48" s="7">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="30">
+        <v>5200</v>
+      </c>
+      <c r="C49" s="7">
+        <v>2</v>
+      </c>
+      <c r="D49" s="7">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" s="30">
+        <v>10262.1</v>
+      </c>
+      <c r="C50" s="7">
+        <v>3</v>
+      </c>
+      <c r="D50" s="7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" s="30">
+        <v>9142.9</v>
+      </c>
+      <c r="C51" s="7">
+        <v>3</v>
+      </c>
+      <c r="D51" s="7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" s="30">
+        <v>6750</v>
+      </c>
+      <c r="C52" s="7">
+        <v>3</v>
+      </c>
+      <c r="D52" s="7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" s="30">
+        <v>6434</v>
+      </c>
+      <c r="C53" s="7">
+        <v>3</v>
+      </c>
+      <c r="D53" s="7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54" s="30">
+        <v>6150</v>
+      </c>
+      <c r="C54" s="7">
+        <v>3</v>
+      </c>
+      <c r="D54" s="7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55" s="30">
+        <v>5964.9</v>
+      </c>
+      <c r="C55" s="7">
+        <v>3</v>
+      </c>
+      <c r="D55" s="7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56" s="30">
+        <v>5761.8</v>
+      </c>
+      <c r="C56" s="7">
+        <v>3</v>
+      </c>
+      <c r="D56" s="7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" s="30">
+        <v>4901.8</v>
+      </c>
+      <c r="C57" s="7">
+        <v>3</v>
+      </c>
+      <c r="D57" s="7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" s="30">
+        <v>10298.5</v>
+      </c>
+      <c r="C58" s="7">
+        <v>3</v>
+      </c>
+      <c r="D58" s="7">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" s="30">
+        <v>9195.4</v>
+      </c>
+      <c r="C59" s="7">
+        <v>3</v>
+      </c>
+      <c r="D59" s="7">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B60" s="30">
+        <v>7333.3</v>
+      </c>
+      <c r="C60" s="7">
+        <v>3</v>
+      </c>
+      <c r="D60" s="7">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" s="30">
+        <v>6615.5</v>
+      </c>
+      <c r="C61" s="7">
+        <v>3</v>
+      </c>
+      <c r="D61" s="7">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B62" s="30">
+        <v>6226.4</v>
+      </c>
+      <c r="C62" s="7">
+        <v>3</v>
+      </c>
+      <c r="D62" s="7">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B63" s="30">
+        <v>6195.7</v>
+      </c>
+      <c r="C63" s="7">
+        <v>3</v>
+      </c>
+      <c r="D63" s="7">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64" s="30">
+        <v>6015.9</v>
+      </c>
+      <c r="C64" s="7">
+        <v>3</v>
+      </c>
+      <c r="D64" s="7">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65" s="30">
+        <v>5000</v>
+      </c>
+      <c r="C65" s="7">
+        <v>3</v>
+      </c>
+      <c r="D65" s="7">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B66" s="30">
+        <v>10040.4</v>
+      </c>
+      <c r="C66" s="7">
+        <v>4</v>
+      </c>
+      <c r="D66" s="7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B67" s="30">
+        <v>8875</v>
+      </c>
+      <c r="C67" s="7">
+        <v>4</v>
+      </c>
+      <c r="D67" s="7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B68" s="30">
+        <v>6854.5</v>
+      </c>
+      <c r="C68" s="7">
+        <v>4</v>
+      </c>
+      <c r="D68" s="7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69" s="30">
+        <v>6444.4</v>
+      </c>
+      <c r="C69" s="7">
+        <v>4</v>
+      </c>
+      <c r="D69" s="7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B70" s="30">
+        <v>6209.5</v>
+      </c>
+      <c r="C70" s="7">
+        <v>4</v>
+      </c>
+      <c r="D70" s="7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B71" s="30">
+        <v>6153.8</v>
+      </c>
+      <c r="C71" s="7">
+        <v>4</v>
+      </c>
+      <c r="D71" s="7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B72" s="30">
+        <v>5842</v>
+      </c>
+      <c r="C72" s="7">
+        <v>4</v>
+      </c>
+      <c r="D72" s="7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B73" s="30">
+        <v>4988.3999999999996</v>
+      </c>
+      <c r="C73" s="7">
+        <v>4</v>
+      </c>
+      <c r="D73" s="7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B74" s="30">
+        <v>10380</v>
+      </c>
+      <c r="C74" s="7">
+        <v>4</v>
+      </c>
+      <c r="D74" s="7">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B75" s="30">
+        <v>9292</v>
+      </c>
+      <c r="C75" s="7">
+        <v>4</v>
+      </c>
+      <c r="D75" s="7">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B76" s="30">
+        <v>7441.9</v>
+      </c>
+      <c r="C76" s="7">
+        <v>4</v>
+      </c>
+      <c r="D76" s="7">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B77" s="30">
+        <v>6800</v>
+      </c>
+      <c r="C77" s="7">
+        <v>4</v>
+      </c>
+      <c r="D77" s="7">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B78" s="30">
+        <v>6540.8</v>
+      </c>
+      <c r="C78" s="7">
+        <v>4</v>
+      </c>
+      <c r="D78" s="7">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B79" s="30">
+        <v>5938.8</v>
+      </c>
+      <c r="C79" s="7">
+        <v>4</v>
+      </c>
+      <c r="D79" s="7">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B80" s="30">
+        <v>5825.8</v>
+      </c>
+      <c r="C80" s="7">
+        <v>4</v>
+      </c>
+      <c r="D80" s="7">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B81" s="30">
+        <v>5000</v>
+      </c>
+      <c r="C81" s="7">
+        <v>4</v>
+      </c>
+      <c r="D81" s="7">
+        <v>2024</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360E8BE8-EC17-4DF8-A27F-E8A58DE5FE41}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -2544,12 +4316,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF5D7BC5-1E73-4272-B6E1-59D999C2A34E}">
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView zoomScale="91" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3130,7 +4902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C5E935-ED5B-4C37-A570-387A5C4EB153}">
   <dimension ref="A1:D157"/>
   <sheetViews>
@@ -5347,7 +7119,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D03E0B-BE0B-4626-A487-7653E406F2FE}">
   <dimension ref="A1:D60"/>
   <sheetViews>
@@ -6203,596 +7975,4 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF73EDB-FB88-4A29-B268-F84747796B00}">
-  <dimension ref="A1:D41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="21.36328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" s="13">
-        <v>1</v>
-      </c>
-      <c r="D2" s="13">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3" s="13">
-        <v>1</v>
-      </c>
-      <c r="D3" s="13">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="13">
-        <v>1</v>
-      </c>
-      <c r="D4" s="13">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" s="13">
-        <v>1</v>
-      </c>
-      <c r="D5" s="13">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="C6" s="13">
-        <v>1</v>
-      </c>
-      <c r="D6" s="13">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="B7" s="19">
-        <v>-8.3000000000000004E-2</v>
-      </c>
-      <c r="C7" s="13">
-        <v>2</v>
-      </c>
-      <c r="D7" s="13">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="B8" s="19">
-        <v>-9.2999999999999999E-2</v>
-      </c>
-      <c r="C8" s="13">
-        <v>2</v>
-      </c>
-      <c r="D8" s="13">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="B9" s="19">
-        <v>-9.5000000000000001E-2</v>
-      </c>
-      <c r="C9" s="13">
-        <v>2</v>
-      </c>
-      <c r="D9" s="13">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B10" s="19">
-        <v>-0.111</v>
-      </c>
-      <c r="C10" s="13">
-        <v>2</v>
-      </c>
-      <c r="D10" s="13">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" s="19">
-        <v>-0.128</v>
-      </c>
-      <c r="C11" s="13">
-        <v>2</v>
-      </c>
-      <c r="D11" s="13">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="B12" s="20">
-        <v>-0.13</v>
-      </c>
-      <c r="C12" s="13">
-        <v>1</v>
-      </c>
-      <c r="D12" s="13">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="20">
-        <v>-0.13100000000000001</v>
-      </c>
-      <c r="C13" s="13">
-        <v>1</v>
-      </c>
-      <c r="D13" s="13">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="20">
-        <v>-0.14899999999999999</v>
-      </c>
-      <c r="C14" s="13">
-        <v>1</v>
-      </c>
-      <c r="D14" s="13">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15" s="20">
-        <v>-0.16900000000000001</v>
-      </c>
-      <c r="C15" s="13">
-        <v>1</v>
-      </c>
-      <c r="D15" s="13">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B16" s="20">
-        <v>-0.26400000000000001</v>
-      </c>
-      <c r="C16" s="13">
-        <v>1</v>
-      </c>
-      <c r="D16" s="13">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="20">
-        <v>-0.105</v>
-      </c>
-      <c r="C17" s="13">
-        <v>1</v>
-      </c>
-      <c r="D17" s="13">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="23">
-        <v>-2.1999999999999999E-2</v>
-      </c>
-      <c r="C18" s="13">
-        <v>2</v>
-      </c>
-      <c r="D18" s="13">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="23">
-        <v>-2.5999999999999999E-2</v>
-      </c>
-      <c r="C19" s="13">
-        <v>2</v>
-      </c>
-      <c r="D19" s="13">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="23">
-        <v>-0.14299999999999999</v>
-      </c>
-      <c r="C20" s="13">
-        <v>2</v>
-      </c>
-      <c r="D20" s="13">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="B21" s="23">
-        <v>-0.13300000000000001</v>
-      </c>
-      <c r="C21" s="13">
-        <v>2</v>
-      </c>
-      <c r="D21" s="13">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="B22" s="23">
-        <v>-0.14899999999999999</v>
-      </c>
-      <c r="C22" s="13">
-        <v>2</v>
-      </c>
-      <c r="D22" s="13">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="23">
-        <v>-0.154</v>
-      </c>
-      <c r="C23" s="13">
-        <v>2</v>
-      </c>
-      <c r="D23" s="13">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" s="23">
-        <v>-0.16300000000000001</v>
-      </c>
-      <c r="C24" s="13">
-        <v>2</v>
-      </c>
-      <c r="D24" s="13">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="B25" s="23">
-        <v>-0.34200000000000003</v>
-      </c>
-      <c r="C25" s="13">
-        <v>2</v>
-      </c>
-      <c r="D25" s="13">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" s="23">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="C26" s="13">
-        <v>3</v>
-      </c>
-      <c r="D26" s="13">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="B27" s="23">
-        <v>-4.8000000000000001E-2</v>
-      </c>
-      <c r="C27" s="13">
-        <v>3</v>
-      </c>
-      <c r="D27" s="13">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28" s="23">
-        <v>-0.21</v>
-      </c>
-      <c r="C28" s="13">
-        <v>3</v>
-      </c>
-      <c r="D28" s="13">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="B29" s="23">
-        <v>-0.107</v>
-      </c>
-      <c r="C29" s="13">
-        <v>3</v>
-      </c>
-      <c r="D29" s="13">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="B30" s="23">
-        <v>-0.13900000000000001</v>
-      </c>
-      <c r="C30" s="13">
-        <v>3</v>
-      </c>
-      <c r="D30" s="13">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B31" s="23">
-        <v>-0.158</v>
-      </c>
-      <c r="C31" s="13">
-        <v>3</v>
-      </c>
-      <c r="D31" s="13">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="B32" s="23">
-        <v>-0.19</v>
-      </c>
-      <c r="C32" s="13">
-        <v>3</v>
-      </c>
-      <c r="D32" s="13">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B33" s="23">
-        <v>-0.24199999999999999</v>
-      </c>
-      <c r="C33" s="13">
-        <v>3</v>
-      </c>
-      <c r="D33" s="13">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="B34" s="23">
-        <v>-9.6000000000000002E-2</v>
-      </c>
-      <c r="C34" s="13">
-        <v>4</v>
-      </c>
-      <c r="D34" s="13">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="B35" s="23">
-        <v>-0.1</v>
-      </c>
-      <c r="C35" s="13">
-        <v>4</v>
-      </c>
-      <c r="D35" s="13">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="B36" s="23">
-        <v>-0.12</v>
-      </c>
-      <c r="C36" s="13">
-        <v>4</v>
-      </c>
-      <c r="D36" s="13">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B37" s="23">
-        <v>-0.152</v>
-      </c>
-      <c r="C37" s="13">
-        <v>4</v>
-      </c>
-      <c r="D37" s="13">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="B38" s="23">
-        <v>-0.28499999999999998</v>
-      </c>
-      <c r="C38" s="13">
-        <v>4</v>
-      </c>
-      <c r="D38" s="13">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" s="23">
-        <v>-4.4999999999999998E-2</v>
-      </c>
-      <c r="C39" s="13">
-        <v>4</v>
-      </c>
-      <c r="D39" s="13">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="B40" s="23">
-        <v>-5.7000000000000002E-2</v>
-      </c>
-      <c r="C40" s="13">
-        <v>4</v>
-      </c>
-      <c r="D40" s="13">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="B41" s="23">
-        <v>-0.17</v>
-      </c>
-      <c r="C41" s="13">
-        <v>4</v>
-      </c>
-      <c r="D41" s="13">
-        <v>2023</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>